--- a/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -1,37 +1,240 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TPPSCE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TPPSCE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +249,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +268,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,830 +565,881 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>2020</v>
+    <row r="1" spans="1:60">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Crude Oil</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:60">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
         <v>6820</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7299</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7321</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>7189</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>7684</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>8450</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>8898</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>10763</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>11633</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>11766</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>10510</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>16194</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>21063</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>26020</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>28990</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>30170</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>30480</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>30357</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>32040</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>34087</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>33020</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>30346</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>26950</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>27026</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>32239</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>35170</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>32900</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>33858</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>32722</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>31949</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>32426</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>32030</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>33040</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>33370</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>33980</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>32190</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>33990</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>34118</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>33506</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>33690</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>37680</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>38090</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>37860</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
+        <v>37860</v>
+      </c>
+      <c r="AT2">
         <v>37788.441</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2">
+        <v>37788.441</v>
+      </c>
+      <c r="AV2">
         <v>37460.998</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AW2">
+        <v>37460.998</v>
+      </c>
+      <c r="AX2">
         <v>36941.752</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AY2">
+        <v>36941.752</v>
+      </c>
+      <c r="AZ2">
         <v>36008.829</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BA2">
+        <v>36008.829</v>
+      </c>
+      <c r="BB2">
         <v>35684.333</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BC2">
+        <v>35684.333</v>
+      </c>
+      <c r="BD2">
         <v>34203.2436774592</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BE2">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="BF2">
         <v>32169.26645056</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="BG2">
+        <v>32169.26645056</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Natural Gas</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:60">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
         <v>1450</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1535</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1565</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1713</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2041</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2370</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2428</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2839</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2812</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>2767</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>2360</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3851</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>4936</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>5961</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>7241</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>8130</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>9853</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>11467</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>13217</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>16988</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>18000</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>18645</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>18060</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>18335</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>19468</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>22640</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>23256</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>26401</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>27428</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>28446</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>29477</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>29710</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>31390</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>31960</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>31760</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>32200</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>31750</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>32417</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>32850</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>47500</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>52220</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>47560</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>40680</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
+        <v>40680</v>
+      </c>
+      <c r="AT3">
         <v>35406.881</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3">
+        <v>35406.881</v>
+      </c>
+      <c r="AV3">
         <v>33657.439</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AW3">
+        <v>33657.439</v>
+      </c>
+      <c r="AX3">
         <v>32249.216</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AY3">
+        <v>32249.216</v>
+      </c>
+      <c r="AZ3">
         <v>31896.702</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="BA3">
+        <v>31896.702</v>
+      </c>
+      <c r="BB3">
         <v>32649.307</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BC3">
+        <v>32649.307</v>
+      </c>
+      <c r="BD3">
         <v>32873.36989356649</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BE3">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="BF3">
         <v>31184.2243860032</v>
       </c>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="BG3">
+        <v>31184.2243860032</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:60">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
         <v>27666</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>29214</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>28329</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>31368</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>30081</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>35928</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>38088</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>40279</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>49929</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>48354</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>49543</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>52586</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>50396</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>53500</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>58023</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>56003</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>58862</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>52479</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>63690</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>66741</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>77782</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>78282</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>76595</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>75861</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>88360</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>80561</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>77972</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>84665</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>94846</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>94005</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>91264</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>93054</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>83404</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>93022</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>101621</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>118818</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>142163.75</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>162553.716364183</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>152886</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>159642.84</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>179926.46</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>214024.08</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>204035.31</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
+        <v>204035.31</v>
+      </c>
+      <c r="AT4">
         <v>234595.01</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4">
+        <v>234595.01</v>
+      </c>
+      <c r="AV4">
         <v>238908.43</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AW4">
+        <v>238908.43</v>
+      </c>
+      <c r="AX4">
         <v>224571.114911498</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AY4">
+        <v>224571.114911498</v>
+      </c>
+      <c r="AZ4">
         <v>241841.64</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BA4">
+        <v>241841.64</v>
+      </c>
+      <c r="BB4">
         <v>266308.3</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="BC4">
+        <v>266308.3</v>
+      </c>
+      <c r="BD4">
         <v>299465</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="BE4">
+        <v>299465</v>
+      </c>
+      <c r="BF4">
         <v>340578.57</v>
       </c>
-      <c r="AZ4" t="inlineStr"/>
+      <c r="BG4">
+        <v>340578.57</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="n">
+    <row r="5" spans="1:60">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK5">
         <v>407.04</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>430.83</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>457.082</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>492.757</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>532.042</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>532.694</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>539.95</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>556.402</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
+        <v>556.402</v>
+      </c>
+      <c r="AT5">
         <v>565.765</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5">
+        <v>565.765</v>
+      </c>
+      <c r="AV5">
         <v>612.4400000000001</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AW5">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="AX5">
         <v>639.23</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AY5">
+        <v>639.23</v>
+      </c>
+      <c r="AZ5">
         <v>657.8680000000001</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="BA5">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="BB5">
         <v>675.4</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BC5">
+        <v>675.4</v>
+      </c>
+      <c r="BD5">
         <v>728.718</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BE5">
+        <v>728.718</v>
+      </c>
+      <c r="BF5">
         <v>730.873</v>
       </c>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="BG5">
+        <v>730.873</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lignite</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
+    <row r="6" spans="1:60">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6">
         <v>30.23</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>31.29</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>33.98</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>32.421</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>34.071</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>37.733</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>42.332</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>46.453</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
+        <v>46.453</v>
+      </c>
+      <c r="AT6">
         <v>44.271</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6">
+        <v>44.271</v>
+      </c>
+      <c r="AV6">
         <v>48.27</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AW6">
+        <v>48.27</v>
+      </c>
+      <c r="AX6">
         <v>43.842</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AY6">
+        <v>43.842</v>
+      </c>
+      <c r="AZ6">
         <v>45.23</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="BA6">
+        <v>45.23</v>
+      </c>
+      <c r="BB6">
         <v>46.644</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="BC6">
+        <v>46.644</v>
+      </c>
+      <c r="BD6">
         <v>44.283</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BE6">
+        <v>44.283</v>
+      </c>
+      <c r="BF6">
         <v>42.103</v>
       </c>
-      <c r="AZ6" t="inlineStr"/>
+      <c r="BG6">
+        <v>42.103</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -1,240 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TPPSCE" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TPPSCE" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2013-01-01</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Lignite</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -249,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -268,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -565,881 +353,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:60">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01-01</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:60">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>6820</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>7299</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7321</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>7189</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>7684</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>8450</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>8898</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>10763</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>11633</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>11766</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>10510</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>16194</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>21063</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>26020</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>28990</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>30170</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>30480</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>30357</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>32040</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>34087</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>33020</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>30346</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>26950</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>27026</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>32239</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>35170</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>32900</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>33858</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>32722</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>31949</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>32426</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>32030</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>33040</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>33370</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>33980</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>32190</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>33990</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>34118</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>33506</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>33690</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>37680</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>38090</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>37860</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>37860</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
+        <v>37860</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>37860</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>37860</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>37860</v>
+      </c>
+      <c r="AX2" t="n">
         <v>37788.441</v>
       </c>
-      <c r="AU2">
+      <c r="AY2" t="n">
         <v>37788.441</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BD2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="AW2">
+      <c r="BE2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="AX2">
+      <c r="BF2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="AY2">
+      <c r="BK2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="AZ2">
+      <c r="BL2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="BP2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BA2">
+      <c r="BQ2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BB2">
+      <c r="BR2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="BV2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="BC2">
+      <c r="BW2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="BD2">
+      <c r="BX2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="CB2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="BE2">
+      <c r="CC2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="BF2">
+      <c r="CD2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="CH2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="BG2">
+      <c r="CI2" t="n">
         <v>32169.26645056</v>
       </c>
+      <c r="CJ2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="CN2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:60">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Natural Gas</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1450</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1535</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1565</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1713</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2041</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>2370</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2428</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>2839</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2812</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>2767</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2360</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>3851</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>4936</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>5961</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>7241</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>8130</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>9853</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>11467</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>13217</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>16988</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>18000</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>18645</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>18060</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>18335</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>19468</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>22640</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>23256</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>26401</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>27428</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>28446</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>29477</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>29710</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>31390</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>31960</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>31760</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>32200</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>31750</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>32417</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>32850</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>47500</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>52220</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>47560</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>40680</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>40680</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
+        <v>40680</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>40680</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>40680</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>40680</v>
+      </c>
+      <c r="AX3" t="n">
         <v>35406.881</v>
       </c>
-      <c r="AU3">
+      <c r="AY3" t="n">
         <v>35406.881</v>
       </c>
-      <c r="AV3">
+      <c r="AZ3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BD3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="AW3">
+      <c r="BE3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="AX3">
+      <c r="BF3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="AY3">
+      <c r="BK3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="AZ3">
+      <c r="BL3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="BP3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BA3">
+      <c r="BQ3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BB3">
+      <c r="BR3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="BV3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="BC3">
+      <c r="BW3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="BD3">
+      <c r="BX3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="CB3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="BE3">
+      <c r="CC3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="BF3">
+      <c r="CD3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="CH3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="BG3">
+      <c r="CI3" t="n">
         <v>31184.2243860032</v>
       </c>
+      <c r="CJ3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="CN3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:60">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Electricity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>27666</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>29214</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>28329</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>31368</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>30081</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>35928</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>38088</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>40279</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>49929</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>48354</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>49543</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>52586</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>50396</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>53500</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>58023</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>56003</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>58862</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>52479</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>63690</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>66741</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>77782</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>78282</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>76595</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>75861</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>88360</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>80561</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>77972</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>84665</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>94846</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>94005</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>91264</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>93054</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>83404</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>93022</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>101621</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>118818</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>142163.75</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>162553.716364183</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>152886</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>159642.84</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>179926.46</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>214024.08</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>204035.31</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>204035.31</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
+        <v>204035.31</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>204035.31</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>204035.31</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>204035.31</v>
+      </c>
+      <c r="AX4" t="n">
         <v>234595.01</v>
       </c>
-      <c r="AU4">
+      <c r="AY4" t="n">
         <v>234595.01</v>
       </c>
-      <c r="AV4">
+      <c r="AZ4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BD4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="AW4">
+      <c r="BE4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="AX4">
+      <c r="BF4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="AY4">
+      <c r="BK4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="AZ4">
+      <c r="BL4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="BP4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BA4">
+      <c r="BQ4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BB4">
+      <c r="BR4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="BV4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="BC4">
+      <c r="BW4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="BD4">
+      <c r="BX4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="CB4" t="n">
         <v>299465</v>
       </c>
-      <c r="BE4">
+      <c r="CC4" t="n">
         <v>299465</v>
       </c>
-      <c r="BF4">
+      <c r="CD4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="CH4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="BG4">
+      <c r="CI4" t="n">
         <v>340578.57</v>
       </c>
+      <c r="CJ4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="CN4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:60">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
         <v>407.04</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>430.83</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>457.082</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>492.757</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>532.042</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>532.694</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>539.95</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>556.402</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>556.402</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
+        <v>556.402</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>556.402</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>556.402</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>556.402</v>
+      </c>
+      <c r="AX5" t="n">
         <v>565.765</v>
       </c>
-      <c r="AU5">
+      <c r="AY5" t="n">
         <v>565.765</v>
       </c>
-      <c r="AV5">
+      <c r="AZ5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BD5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="AW5">
+      <c r="BE5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="AX5">
+      <c r="BF5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>639.23</v>
       </c>
-      <c r="AY5">
+      <c r="BK5" t="n">
         <v>639.23</v>
       </c>
-      <c r="AZ5">
+      <c r="BL5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="BP5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BA5">
+      <c r="BQ5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BB5">
+      <c r="BR5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="BV5" t="n">
         <v>675.4</v>
       </c>
-      <c r="BC5">
+      <c r="BW5" t="n">
         <v>675.4</v>
       </c>
-      <c r="BD5">
+      <c r="BX5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="CB5" t="n">
         <v>728.718</v>
       </c>
-      <c r="BE5">
+      <c r="CC5" t="n">
         <v>728.718</v>
       </c>
-      <c r="BF5">
+      <c r="CD5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="CH5" t="n">
         <v>730.873</v>
       </c>
-      <c r="BG5">
+      <c r="CI5" t="n">
         <v>730.873</v>
       </c>
+      <c r="CJ5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="CN5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:60">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
         <v>30.23</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>31.29</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>33.98</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>32.421</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>34.071</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>37.733</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>42.332</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>46.453</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>46.453</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
+        <v>46.453</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>46.453</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>46.453</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>46.453</v>
+      </c>
+      <c r="AX6" t="n">
         <v>44.271</v>
       </c>
-      <c r="AU6">
+      <c r="AY6" t="n">
         <v>44.271</v>
       </c>
-      <c r="AV6">
+      <c r="AZ6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BD6" t="n">
         <v>48.27</v>
       </c>
-      <c r="AW6">
+      <c r="BE6" t="n">
         <v>48.27</v>
       </c>
-      <c r="AX6">
+      <c r="BF6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>43.842</v>
       </c>
-      <c r="AY6">
+      <c r="BK6" t="n">
         <v>43.842</v>
       </c>
-      <c r="AZ6">
+      <c r="BL6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="BP6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BA6">
+      <c r="BQ6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BB6">
+      <c r="BR6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="BV6" t="n">
         <v>46.644</v>
       </c>
-      <c r="BC6">
+      <c r="BW6" t="n">
         <v>46.644</v>
       </c>
-      <c r="BD6">
+      <c r="BX6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="CB6" t="n">
         <v>44.283</v>
       </c>
-      <c r="BE6">
+      <c r="CC6" t="n">
         <v>44.283</v>
       </c>
-      <c r="BF6">
+      <c r="CD6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="CH6" t="n">
         <v>42.103</v>
       </c>
-      <c r="BG6">
+      <c r="CI6" t="n">
         <v>42.103</v>
       </c>
+      <c r="CJ6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="CN6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN6"/>
+  <dimension ref="A1:DD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,220 +609,300 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -979,10 +1059,10 @@
         <v>37860</v>
       </c>
       <c r="AX2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="AY2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="AZ2" t="n">
         <v>37788.441</v>
@@ -997,16 +1077,16 @@
         <v>37788.441</v>
       </c>
       <c r="BD2" t="n">
-        <v>37460.998</v>
+        <v>37788.441</v>
       </c>
       <c r="BE2" t="n">
-        <v>37460.998</v>
+        <v>37788.441</v>
       </c>
       <c r="BF2" t="n">
-        <v>37460.998</v>
+        <v>37788.441</v>
       </c>
       <c r="BG2" t="n">
-        <v>37460.998</v>
+        <v>37788.441</v>
       </c>
       <c r="BH2" t="n">
         <v>37460.998</v>
@@ -1015,96 +1095,144 @@
         <v>37460.998</v>
       </c>
       <c r="BJ2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="BP2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BQ2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BR2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BS2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BT2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BU2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BV2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="BX2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BY2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BZ2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CA2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CB2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CC2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CD2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="CF2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CG2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CH2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CI2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CJ2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CK2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CL2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="CN2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CO2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CP2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CQ2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CR2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CS2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CT2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="CV2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CW2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CX2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CY2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CZ2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DA2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="CN2" t="inlineStr"/>
+      <c r="DB2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1257,10 +1385,10 @@
         <v>40680</v>
       </c>
       <c r="AX3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="AY3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="AZ3" t="n">
         <v>35406.881</v>
@@ -1275,16 +1403,16 @@
         <v>35406.881</v>
       </c>
       <c r="BD3" t="n">
-        <v>33657.439</v>
+        <v>35406.881</v>
       </c>
       <c r="BE3" t="n">
-        <v>33657.439</v>
+        <v>35406.881</v>
       </c>
       <c r="BF3" t="n">
-        <v>33657.439</v>
+        <v>35406.881</v>
       </c>
       <c r="BG3" t="n">
-        <v>33657.439</v>
+        <v>35406.881</v>
       </c>
       <c r="BH3" t="n">
         <v>33657.439</v>
@@ -1293,96 +1421,144 @@
         <v>33657.439</v>
       </c>
       <c r="BJ3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="BP3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BQ3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BR3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BS3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BT3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BU3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BV3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="BX3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BY3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BZ3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CA3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CB3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CC3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CD3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="CF3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CG3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CH3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CI3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CJ3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CK3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CL3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="CN3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CO3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CP3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CQ3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CR3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CS3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CT3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="CV3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CW3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CX3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CY3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CZ3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="DA3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="CN3" t="inlineStr"/>
+      <c r="DB3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1535,10 +1711,10 @@
         <v>204035.31</v>
       </c>
       <c r="AX4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="AY4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="AZ4" t="n">
         <v>234595.01</v>
@@ -1553,16 +1729,16 @@
         <v>234595.01</v>
       </c>
       <c r="BD4" t="n">
-        <v>238908.43</v>
+        <v>234595.01</v>
       </c>
       <c r="BE4" t="n">
-        <v>238908.43</v>
+        <v>234595.01</v>
       </c>
       <c r="BF4" t="n">
-        <v>238908.43</v>
+        <v>234595.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>238908.43</v>
+        <v>234595.01</v>
       </c>
       <c r="BH4" t="n">
         <v>238908.43</v>
@@ -1571,96 +1747,144 @@
         <v>238908.43</v>
       </c>
       <c r="BJ4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="BP4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BQ4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BR4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BS4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BT4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BU4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BV4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="BX4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BY4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BZ4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="CA4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="CB4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CC4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CD4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="CF4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CG4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CH4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CI4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CJ4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CK4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CL4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="CN4" t="n">
         <v>299465</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CO4" t="n">
         <v>299465</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CP4" t="n">
         <v>299465</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CQ4" t="n">
         <v>299465</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CR4" t="n">
         <v>299465</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CS4" t="n">
         <v>299465</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CT4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="CV4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CW4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CX4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CY4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CZ4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="DA4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="CN4" t="inlineStr"/>
+      <c r="DB4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1743,10 +1967,10 @@
         <v>556.402</v>
       </c>
       <c r="AX5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="AY5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="AZ5" t="n">
         <v>565.765</v>
@@ -1761,16 +1985,16 @@
         <v>565.765</v>
       </c>
       <c r="BD5" t="n">
-        <v>612.4400000000001</v>
+        <v>565.765</v>
       </c>
       <c r="BE5" t="n">
-        <v>612.4400000000001</v>
+        <v>565.765</v>
       </c>
       <c r="BF5" t="n">
-        <v>612.4400000000001</v>
+        <v>565.765</v>
       </c>
       <c r="BG5" t="n">
-        <v>612.4400000000001</v>
+        <v>565.765</v>
       </c>
       <c r="BH5" t="n">
         <v>612.4400000000001</v>
@@ -1779,96 +2003,144 @@
         <v>612.4400000000001</v>
       </c>
       <c r="BJ5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="BP5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BQ5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BR5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BS5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BT5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BU5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BV5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="BX5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BY5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BZ5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CA5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CB5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CC5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CD5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="CF5" t="n">
         <v>675.4</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CG5" t="n">
         <v>675.4</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CH5" t="n">
         <v>675.4</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CI5" t="n">
         <v>675.4</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CJ5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CK5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CL5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="CN5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CO5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CP5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CQ5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CR5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CS5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CT5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="CV5" t="n">
         <v>730.873</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CW5" t="n">
         <v>730.873</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CX5" t="n">
         <v>730.873</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CY5" t="n">
         <v>730.873</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CZ5" t="n">
         <v>730.873</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="DA5" t="n">
         <v>730.873</v>
       </c>
-      <c r="CN5" t="inlineStr"/>
+      <c r="DB5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1951,10 +2223,10 @@
         <v>46.453</v>
       </c>
       <c r="AX6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="AY6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="AZ6" t="n">
         <v>44.271</v>
@@ -1969,16 +2241,16 @@
         <v>44.271</v>
       </c>
       <c r="BD6" t="n">
-        <v>48.27</v>
+        <v>44.271</v>
       </c>
       <c r="BE6" t="n">
-        <v>48.27</v>
+        <v>44.271</v>
       </c>
       <c r="BF6" t="n">
-        <v>48.27</v>
+        <v>44.271</v>
       </c>
       <c r="BG6" t="n">
-        <v>48.27</v>
+        <v>44.271</v>
       </c>
       <c r="BH6" t="n">
         <v>48.27</v>
@@ -1987,96 +2259,144 @@
         <v>48.27</v>
       </c>
       <c r="BJ6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="BP6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BQ6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BR6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BS6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BT6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BU6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BV6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="BX6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BY6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BZ6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CA6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CB6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CC6" t="n">
         <v>45.23</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CD6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="CF6" t="n">
         <v>46.644</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CG6" t="n">
         <v>46.644</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CH6" t="n">
         <v>46.644</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CI6" t="n">
         <v>46.644</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CJ6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CK6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CL6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="CN6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CO6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CP6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CQ6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CR6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CS6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CT6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="CV6" t="n">
         <v>42.103</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CW6" t="n">
         <v>42.103</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CX6" t="n">
         <v>42.103</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CY6" t="n">
         <v>42.103</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CZ6" t="n">
         <v>42.103</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="DA6" t="n">
         <v>42.103</v>
       </c>
-      <c r="CN6" t="inlineStr"/>
+      <c r="DB6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD6"/>
+  <dimension ref="A1:DL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,290 +619,330 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1065,7 +1105,7 @@
         <v>37860</v>
       </c>
       <c r="AZ2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="BA2" t="n">
         <v>37788.441</v>
@@ -1089,10 +1129,10 @@
         <v>37788.441</v>
       </c>
       <c r="BH2" t="n">
-        <v>37460.998</v>
+        <v>37788.441</v>
       </c>
       <c r="BI2" t="n">
-        <v>37460.998</v>
+        <v>37788.441</v>
       </c>
       <c r="BJ2" t="n">
         <v>37460.998</v>
@@ -1113,13 +1153,13 @@
         <v>37460.998</v>
       </c>
       <c r="BP2" t="n">
-        <v>36941.752</v>
+        <v>37460.998</v>
       </c>
       <c r="BQ2" t="n">
-        <v>36941.752</v>
+        <v>37460.998</v>
       </c>
       <c r="BR2" t="n">
-        <v>36941.752</v>
+        <v>37460.998</v>
       </c>
       <c r="BS2" t="n">
         <v>36941.752</v>
@@ -1137,16 +1177,16 @@
         <v>36941.752</v>
       </c>
       <c r="BX2" t="n">
-        <v>36008.829</v>
+        <v>36941.752</v>
       </c>
       <c r="BY2" t="n">
-        <v>36008.829</v>
+        <v>36941.752</v>
       </c>
       <c r="BZ2" t="n">
-        <v>36008.829</v>
+        <v>36941.752</v>
       </c>
       <c r="CA2" t="n">
-        <v>36008.829</v>
+        <v>36941.752</v>
       </c>
       <c r="CB2" t="n">
         <v>36008.829</v>
@@ -1161,19 +1201,19 @@
         <v>36008.829</v>
       </c>
       <c r="CF2" t="n">
-        <v>35684.333</v>
+        <v>36008.829</v>
       </c>
       <c r="CG2" t="n">
-        <v>35684.333</v>
+        <v>36008.829</v>
       </c>
       <c r="CH2" t="n">
-        <v>35684.333</v>
+        <v>36008.829</v>
       </c>
       <c r="CI2" t="n">
-        <v>35684.333</v>
+        <v>36008.829</v>
       </c>
       <c r="CJ2" t="n">
-        <v>35684.333</v>
+        <v>36008.829</v>
       </c>
       <c r="CK2" t="n">
         <v>35684.333</v>
@@ -1185,22 +1225,22 @@
         <v>35684.333</v>
       </c>
       <c r="CN2" t="n">
-        <v>34203.2436774592</v>
+        <v>35684.333</v>
       </c>
       <c r="CO2" t="n">
-        <v>34203.2436774592</v>
+        <v>35684.333</v>
       </c>
       <c r="CP2" t="n">
-        <v>34203.2436774592</v>
+        <v>35684.333</v>
       </c>
       <c r="CQ2" t="n">
-        <v>34203.2436774592</v>
+        <v>35684.333</v>
       </c>
       <c r="CR2" t="n">
-        <v>34203.2436774592</v>
+        <v>35684.333</v>
       </c>
       <c r="CS2" t="n">
-        <v>34203.2436774592</v>
+        <v>35684.333</v>
       </c>
       <c r="CT2" t="n">
         <v>34203.2436774592</v>
@@ -1209,30 +1249,54 @@
         <v>34203.2436774592</v>
       </c>
       <c r="CV2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="CW2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="CX2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="CY2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="CZ2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="DA2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="DB2" t="n">
-        <v>32169.26645056</v>
+        <v>34203.2436774592</v>
       </c>
       <c r="DC2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DD2" t="inlineStr"/>
+      <c r="DD2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="DL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1391,7 +1455,7 @@
         <v>40680</v>
       </c>
       <c r="AZ3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="BA3" t="n">
         <v>35406.881</v>
@@ -1415,10 +1479,10 @@
         <v>35406.881</v>
       </c>
       <c r="BH3" t="n">
-        <v>33657.439</v>
+        <v>35406.881</v>
       </c>
       <c r="BI3" t="n">
-        <v>33657.439</v>
+        <v>35406.881</v>
       </c>
       <c r="BJ3" t="n">
         <v>33657.439</v>
@@ -1439,13 +1503,13 @@
         <v>33657.439</v>
       </c>
       <c r="BP3" t="n">
-        <v>32249.216</v>
+        <v>33657.439</v>
       </c>
       <c r="BQ3" t="n">
-        <v>32249.216</v>
+        <v>33657.439</v>
       </c>
       <c r="BR3" t="n">
-        <v>32249.216</v>
+        <v>33657.439</v>
       </c>
       <c r="BS3" t="n">
         <v>32249.216</v>
@@ -1463,16 +1527,16 @@
         <v>32249.216</v>
       </c>
       <c r="BX3" t="n">
-        <v>31896.702</v>
+        <v>32249.216</v>
       </c>
       <c r="BY3" t="n">
-        <v>31896.702</v>
+        <v>32249.216</v>
       </c>
       <c r="BZ3" t="n">
-        <v>31896.702</v>
+        <v>32249.216</v>
       </c>
       <c r="CA3" t="n">
-        <v>31896.702</v>
+        <v>32249.216</v>
       </c>
       <c r="CB3" t="n">
         <v>31896.702</v>
@@ -1487,19 +1551,19 @@
         <v>31896.702</v>
       </c>
       <c r="CF3" t="n">
-        <v>32649.307</v>
+        <v>31896.702</v>
       </c>
       <c r="CG3" t="n">
-        <v>32649.307</v>
+        <v>31896.702</v>
       </c>
       <c r="CH3" t="n">
-        <v>32649.307</v>
+        <v>31896.702</v>
       </c>
       <c r="CI3" t="n">
-        <v>32649.307</v>
+        <v>31896.702</v>
       </c>
       <c r="CJ3" t="n">
-        <v>32649.307</v>
+        <v>31896.702</v>
       </c>
       <c r="CK3" t="n">
         <v>32649.307</v>
@@ -1511,22 +1575,22 @@
         <v>32649.307</v>
       </c>
       <c r="CN3" t="n">
-        <v>32873.36989356649</v>
+        <v>32649.307</v>
       </c>
       <c r="CO3" t="n">
-        <v>32873.36989356649</v>
+        <v>32649.307</v>
       </c>
       <c r="CP3" t="n">
-        <v>32873.36989356649</v>
+        <v>32649.307</v>
       </c>
       <c r="CQ3" t="n">
-        <v>32873.36989356649</v>
+        <v>32649.307</v>
       </c>
       <c r="CR3" t="n">
-        <v>32873.36989356649</v>
+        <v>32649.307</v>
       </c>
       <c r="CS3" t="n">
-        <v>32873.36989356649</v>
+        <v>32649.307</v>
       </c>
       <c r="CT3" t="n">
         <v>32873.36989356649</v>
@@ -1535,30 +1599,54 @@
         <v>32873.36989356649</v>
       </c>
       <c r="CV3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="CW3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="CX3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="CY3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="CZ3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="DA3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="DB3" t="n">
-        <v>31184.2243860032</v>
+        <v>32873.36989356649</v>
       </c>
       <c r="DC3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DD3" t="inlineStr"/>
+      <c r="DD3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="DL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1717,7 +1805,7 @@
         <v>204035.31</v>
       </c>
       <c r="AZ4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="BA4" t="n">
         <v>234595.01</v>
@@ -1741,10 +1829,10 @@
         <v>234595.01</v>
       </c>
       <c r="BH4" t="n">
-        <v>238908.43</v>
+        <v>234595.01</v>
       </c>
       <c r="BI4" t="n">
-        <v>238908.43</v>
+        <v>234595.01</v>
       </c>
       <c r="BJ4" t="n">
         <v>238908.43</v>
@@ -1765,13 +1853,13 @@
         <v>238908.43</v>
       </c>
       <c r="BP4" t="n">
-        <v>224571.114911498</v>
+        <v>238908.43</v>
       </c>
       <c r="BQ4" t="n">
-        <v>224571.114911498</v>
+        <v>238908.43</v>
       </c>
       <c r="BR4" t="n">
-        <v>224571.114911498</v>
+        <v>238908.43</v>
       </c>
       <c r="BS4" t="n">
         <v>224571.114911498</v>
@@ -1789,16 +1877,16 @@
         <v>224571.114911498</v>
       </c>
       <c r="BX4" t="n">
-        <v>241841.64</v>
+        <v>224571.114911498</v>
       </c>
       <c r="BY4" t="n">
-        <v>241841.64</v>
+        <v>224571.114911498</v>
       </c>
       <c r="BZ4" t="n">
-        <v>241841.64</v>
+        <v>224571.114911498</v>
       </c>
       <c r="CA4" t="n">
-        <v>241841.64</v>
+        <v>224571.114911498</v>
       </c>
       <c r="CB4" t="n">
         <v>241841.64</v>
@@ -1813,19 +1901,19 @@
         <v>241841.64</v>
       </c>
       <c r="CF4" t="n">
-        <v>266308.3</v>
+        <v>241841.64</v>
       </c>
       <c r="CG4" t="n">
-        <v>266308.3</v>
+        <v>241841.64</v>
       </c>
       <c r="CH4" t="n">
-        <v>266308.3</v>
+        <v>241841.64</v>
       </c>
       <c r="CI4" t="n">
-        <v>266308.3</v>
+        <v>241841.64</v>
       </c>
       <c r="CJ4" t="n">
-        <v>266308.3</v>
+        <v>241841.64</v>
       </c>
       <c r="CK4" t="n">
         <v>266308.3</v>
@@ -1837,22 +1925,22 @@
         <v>266308.3</v>
       </c>
       <c r="CN4" t="n">
-        <v>299465</v>
+        <v>266308.3</v>
       </c>
       <c r="CO4" t="n">
-        <v>299465</v>
+        <v>266308.3</v>
       </c>
       <c r="CP4" t="n">
-        <v>299465</v>
+        <v>266308.3</v>
       </c>
       <c r="CQ4" t="n">
-        <v>299465</v>
+        <v>266308.3</v>
       </c>
       <c r="CR4" t="n">
-        <v>299465</v>
+        <v>266308.3</v>
       </c>
       <c r="CS4" t="n">
-        <v>299465</v>
+        <v>266308.3</v>
       </c>
       <c r="CT4" t="n">
         <v>299465</v>
@@ -1861,30 +1949,54 @@
         <v>299465</v>
       </c>
       <c r="CV4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="CW4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="CX4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="CY4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="CZ4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="DA4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="DB4" t="n">
-        <v>340578.57</v>
+        <v>299465</v>
       </c>
       <c r="DC4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DD4" t="inlineStr"/>
+      <c r="DD4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="DL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1973,7 +2085,7 @@
         <v>556.402</v>
       </c>
       <c r="AZ5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="BA5" t="n">
         <v>565.765</v>
@@ -1997,10 +2109,10 @@
         <v>565.765</v>
       </c>
       <c r="BH5" t="n">
-        <v>612.4400000000001</v>
+        <v>565.765</v>
       </c>
       <c r="BI5" t="n">
-        <v>612.4400000000001</v>
+        <v>565.765</v>
       </c>
       <c r="BJ5" t="n">
         <v>612.4400000000001</v>
@@ -2021,13 +2133,13 @@
         <v>612.4400000000001</v>
       </c>
       <c r="BP5" t="n">
-        <v>639.23</v>
+        <v>612.4400000000001</v>
       </c>
       <c r="BQ5" t="n">
-        <v>639.23</v>
+        <v>612.4400000000001</v>
       </c>
       <c r="BR5" t="n">
-        <v>639.23</v>
+        <v>612.4400000000001</v>
       </c>
       <c r="BS5" t="n">
         <v>639.23</v>
@@ -2045,16 +2157,16 @@
         <v>639.23</v>
       </c>
       <c r="BX5" t="n">
-        <v>657.8680000000001</v>
+        <v>639.23</v>
       </c>
       <c r="BY5" t="n">
-        <v>657.8680000000001</v>
+        <v>639.23</v>
       </c>
       <c r="BZ5" t="n">
-        <v>657.8680000000001</v>
+        <v>639.23</v>
       </c>
       <c r="CA5" t="n">
-        <v>657.8680000000001</v>
+        <v>639.23</v>
       </c>
       <c r="CB5" t="n">
         <v>657.8680000000001</v>
@@ -2069,19 +2181,19 @@
         <v>657.8680000000001</v>
       </c>
       <c r="CF5" t="n">
-        <v>675.4</v>
+        <v>657.8680000000001</v>
       </c>
       <c r="CG5" t="n">
-        <v>675.4</v>
+        <v>657.8680000000001</v>
       </c>
       <c r="CH5" t="n">
-        <v>675.4</v>
+        <v>657.8680000000001</v>
       </c>
       <c r="CI5" t="n">
-        <v>675.4</v>
+        <v>657.8680000000001</v>
       </c>
       <c r="CJ5" t="n">
-        <v>675.4</v>
+        <v>657.8680000000001</v>
       </c>
       <c r="CK5" t="n">
         <v>675.4</v>
@@ -2093,22 +2205,22 @@
         <v>675.4</v>
       </c>
       <c r="CN5" t="n">
-        <v>728.718</v>
+        <v>675.4</v>
       </c>
       <c r="CO5" t="n">
-        <v>728.718</v>
+        <v>675.4</v>
       </c>
       <c r="CP5" t="n">
-        <v>728.718</v>
+        <v>675.4</v>
       </c>
       <c r="CQ5" t="n">
-        <v>728.718</v>
+        <v>675.4</v>
       </c>
       <c r="CR5" t="n">
-        <v>728.718</v>
+        <v>675.4</v>
       </c>
       <c r="CS5" t="n">
-        <v>728.718</v>
+        <v>675.4</v>
       </c>
       <c r="CT5" t="n">
         <v>728.718</v>
@@ -2117,30 +2229,54 @@
         <v>728.718</v>
       </c>
       <c r="CV5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="CW5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="CX5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="CY5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="CZ5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="DA5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="DB5" t="n">
-        <v>730.873</v>
+        <v>728.718</v>
       </c>
       <c r="DC5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DD5" t="inlineStr"/>
+      <c r="DD5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="DL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2229,7 +2365,7 @@
         <v>46.453</v>
       </c>
       <c r="AZ6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="BA6" t="n">
         <v>44.271</v>
@@ -2253,10 +2389,10 @@
         <v>44.271</v>
       </c>
       <c r="BH6" t="n">
-        <v>48.27</v>
+        <v>44.271</v>
       </c>
       <c r="BI6" t="n">
-        <v>48.27</v>
+        <v>44.271</v>
       </c>
       <c r="BJ6" t="n">
         <v>48.27</v>
@@ -2277,13 +2413,13 @@
         <v>48.27</v>
       </c>
       <c r="BP6" t="n">
-        <v>43.842</v>
+        <v>48.27</v>
       </c>
       <c r="BQ6" t="n">
-        <v>43.842</v>
+        <v>48.27</v>
       </c>
       <c r="BR6" t="n">
-        <v>43.842</v>
+        <v>48.27</v>
       </c>
       <c r="BS6" t="n">
         <v>43.842</v>
@@ -2301,16 +2437,16 @@
         <v>43.842</v>
       </c>
       <c r="BX6" t="n">
-        <v>45.23</v>
+        <v>43.842</v>
       </c>
       <c r="BY6" t="n">
-        <v>45.23</v>
+        <v>43.842</v>
       </c>
       <c r="BZ6" t="n">
-        <v>45.23</v>
+        <v>43.842</v>
       </c>
       <c r="CA6" t="n">
-        <v>45.23</v>
+        <v>43.842</v>
       </c>
       <c r="CB6" t="n">
         <v>45.23</v>
@@ -2325,19 +2461,19 @@
         <v>45.23</v>
       </c>
       <c r="CF6" t="n">
-        <v>46.644</v>
+        <v>45.23</v>
       </c>
       <c r="CG6" t="n">
-        <v>46.644</v>
+        <v>45.23</v>
       </c>
       <c r="CH6" t="n">
-        <v>46.644</v>
+        <v>45.23</v>
       </c>
       <c r="CI6" t="n">
-        <v>46.644</v>
+        <v>45.23</v>
       </c>
       <c r="CJ6" t="n">
-        <v>46.644</v>
+        <v>45.23</v>
       </c>
       <c r="CK6" t="n">
         <v>46.644</v>
@@ -2349,22 +2485,22 @@
         <v>46.644</v>
       </c>
       <c r="CN6" t="n">
-        <v>44.283</v>
+        <v>46.644</v>
       </c>
       <c r="CO6" t="n">
-        <v>44.283</v>
+        <v>46.644</v>
       </c>
       <c r="CP6" t="n">
-        <v>44.283</v>
+        <v>46.644</v>
       </c>
       <c r="CQ6" t="n">
-        <v>44.283</v>
+        <v>46.644</v>
       </c>
       <c r="CR6" t="n">
-        <v>44.283</v>
+        <v>46.644</v>
       </c>
       <c r="CS6" t="n">
-        <v>44.283</v>
+        <v>46.644</v>
       </c>
       <c r="CT6" t="n">
         <v>44.283</v>
@@ -2373,30 +2509,54 @@
         <v>44.283</v>
       </c>
       <c r="CV6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="CW6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="CX6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="CY6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="CZ6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="DA6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="DB6" t="n">
-        <v>42.103</v>
+        <v>44.283</v>
       </c>
       <c r="DC6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DD6" t="inlineStr"/>
+      <c r="DD6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="DL6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL6"/>
+  <dimension ref="A1:EZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,325 +624,525 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1108,19 +1308,19 @@
         <v>37860</v>
       </c>
       <c r="BA2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="BB2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="BC2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="BD2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="BE2" t="n">
-        <v>37788.441</v>
+        <v>37860</v>
       </c>
       <c r="BF2" t="n">
         <v>37788.441</v>
@@ -1135,168 +1335,288 @@
         <v>37788.441</v>
       </c>
       <c r="BJ2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>37788.441</v>
+      </c>
+      <c r="BT2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BU2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BV2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BW2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BX2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BY2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BZ2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CA2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CB2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CC2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>37460.998</v>
+      </c>
+      <c r="CH2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CI2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CJ2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CK2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CL2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CM2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CN2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CO2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CP2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CQ2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>36941.752</v>
+      </c>
+      <c r="CV2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CW2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CX2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CY2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CZ2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="DA2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="DB2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="DC2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="DD2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DE2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>36008.829</v>
+      </c>
+      <c r="DJ2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DK2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DL2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DM2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DN2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DO2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DP2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DQ2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DR2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DS2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>35684.333</v>
+      </c>
+      <c r="DX2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DY2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DZ2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="EA2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="EB2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="EC2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="ED2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="EE2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="EF2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="EG2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>34203.2436774592</v>
+      </c>
+      <c r="EL2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="EM2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EN2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EO2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EP2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EQ2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="ER2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="ES2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="ET2" t="n">
         <v>32169.26645056</v>
       </c>
-      <c r="DL2" t="inlineStr"/>
+      <c r="EU2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="EZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1458,19 +1778,19 @@
         <v>40680</v>
       </c>
       <c r="BA3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="BB3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="BC3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="BD3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="BE3" t="n">
-        <v>35406.881</v>
+        <v>40680</v>
       </c>
       <c r="BF3" t="n">
         <v>35406.881</v>
@@ -1485,168 +1805,288 @@
         <v>35406.881</v>
       </c>
       <c r="BJ3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>35406.881</v>
+      </c>
+      <c r="BT3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BU3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BV3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BW3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BX3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BY3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BZ3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="CA3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="CB3" t="n">
         <v>33657.439</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CC3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="CH3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CI3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CJ3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CK3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CL3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CM3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CN3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CO3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CP3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CQ3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>32249.216</v>
+      </c>
+      <c r="CV3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CW3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CX3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CY3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CZ3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="DA3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="DB3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="DC3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="DD3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="DE3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>31896.702</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="DK3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="DL3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="DM3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="DN3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="DO3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="DP3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DQ3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="DR3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="DS3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>32649.307</v>
+      </c>
+      <c r="DX3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DY3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="DZ3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="EA3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="EB3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="EC3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="ED3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="EE3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="EF3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="EG3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>32873.36989356649</v>
+      </c>
+      <c r="EL3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="EM3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="EN3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="EO3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="EP3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="EQ3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="ER3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="ES3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="ET3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="DL3" t="inlineStr"/>
+      <c r="EU3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>31184.2243860032</v>
+      </c>
+      <c r="EZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1808,19 +2248,19 @@
         <v>204035.31</v>
       </c>
       <c r="BA4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="BB4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="BC4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="BD4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="BE4" t="n">
-        <v>234595.01</v>
+        <v>204035.31</v>
       </c>
       <c r="BF4" t="n">
         <v>234595.01</v>
@@ -1835,168 +2275,288 @@
         <v>234595.01</v>
       </c>
       <c r="BJ4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>234595.01</v>
+      </c>
+      <c r="BT4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BU4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BV4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BW4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BX4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BY4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BZ4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="CA4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="CB4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="CC4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>238908.43</v>
+      </c>
+      <c r="CH4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="CI4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CJ4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CK4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CL4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CM4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CN4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CO4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CP4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CQ4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>224571.114911498</v>
+      </c>
+      <c r="CV4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CW4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CX4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CY4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CZ4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="DA4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="DB4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="DC4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="DD4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DE4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>241841.64</v>
+      </c>
+      <c r="DJ4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DK4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="DL4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="DM4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="DN4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="DO4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="DP4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="DQ4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="DR4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="DS4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>266308.3</v>
+      </c>
+      <c r="DX4" t="n">
         <v>299465</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DY4" t="n">
         <v>299465</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="DZ4" t="n">
         <v>299465</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="EA4" t="n">
         <v>299465</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="EB4" t="n">
         <v>299465</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="EC4" t="n">
         <v>299465</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="ED4" t="n">
         <v>299465</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="EE4" t="n">
         <v>299465</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="EF4" t="n">
         <v>299465</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="EG4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>299465</v>
+      </c>
+      <c r="EL4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="EM4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="EN4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="EO4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="EP4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="EQ4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="ER4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="ES4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="ET4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="DL4" t="inlineStr"/>
+      <c r="EU4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>340578.57</v>
+      </c>
+      <c r="EZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2088,19 +2648,19 @@
         <v>556.402</v>
       </c>
       <c r="BA5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="BB5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="BC5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="BD5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="BE5" t="n">
-        <v>565.765</v>
+        <v>556.402</v>
       </c>
       <c r="BF5" t="n">
         <v>565.765</v>
@@ -2115,168 +2675,288 @@
         <v>565.765</v>
       </c>
       <c r="BJ5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>565.765</v>
+      </c>
+      <c r="BT5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BU5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BV5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BW5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BX5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BY5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BZ5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="CA5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="CB5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CC5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>612.4400000000001</v>
+      </c>
+      <c r="CH5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CI5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CJ5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CK5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CL5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CM5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CN5" t="n">
         <v>639.23</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CO5" t="n">
         <v>639.23</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CP5" t="n">
         <v>639.23</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CQ5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>639.23</v>
+      </c>
+      <c r="CV5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CW5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CX5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CY5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CZ5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="DA5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="DB5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="DC5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="DD5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DE5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>657.8680000000001</v>
+      </c>
+      <c r="DJ5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DK5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="DL5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="DM5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="DN5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="DO5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="DP5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="DQ5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="DR5" t="n">
         <v>675.4</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="DS5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>675.4</v>
+      </c>
+      <c r="DX5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="DY5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="DZ5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="EA5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="EB5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="EC5" t="n">
         <v>728.718</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="ED5" t="n">
         <v>728.718</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="EE5" t="n">
         <v>728.718</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="EF5" t="n">
         <v>728.718</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="EG5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="EL5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="EM5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="EN5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="EO5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="EP5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="EQ5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="ER5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="ES5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="ET5" t="n">
         <v>730.873</v>
       </c>
-      <c r="DL5" t="inlineStr"/>
+      <c r="EU5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>730.873</v>
+      </c>
+      <c r="EZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2368,19 +3048,19 @@
         <v>46.453</v>
       </c>
       <c r="BA6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="BB6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="BC6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="BD6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="BE6" t="n">
-        <v>44.271</v>
+        <v>46.453</v>
       </c>
       <c r="BF6" t="n">
         <v>44.271</v>
@@ -2395,168 +3075,288 @@
         <v>44.271</v>
       </c>
       <c r="BJ6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>44.271</v>
+      </c>
+      <c r="BT6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BU6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BV6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BW6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BX6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BY6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BZ6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="CA6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="CB6" t="n">
         <v>48.27</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CC6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="CH6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CI6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CJ6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CK6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CL6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CM6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CN6" t="n">
         <v>43.842</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CO6" t="n">
         <v>43.842</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CP6" t="n">
         <v>43.842</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CQ6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>43.842</v>
+      </c>
+      <c r="CV6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CW6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CX6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CY6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CZ6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="DA6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="DB6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="DC6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="DD6" t="n">
         <v>45.23</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="DE6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="DJ6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="DK6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="DL6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="DM6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="DN6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="DO6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="DP6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="DQ6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="DR6" t="n">
         <v>46.644</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="DS6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>46.644</v>
+      </c>
+      <c r="DX6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="DY6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="DZ6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="EA6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="EB6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="EC6" t="n">
         <v>44.283</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="ED6" t="n">
         <v>44.283</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="EE6" t="n">
         <v>44.283</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="EF6" t="n">
         <v>44.283</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="EG6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>44.283</v>
+      </c>
+      <c r="EL6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="EM6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="EN6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="EO6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="EP6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="EQ6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="ER6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="ES6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="ET6" t="n">
         <v>42.103</v>
       </c>
-      <c r="DL6" t="inlineStr"/>
+      <c r="EU6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>42.103</v>
+      </c>
+      <c r="EZ6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
